--- a/relasi tabel.xlsx
+++ b/relasi tabel.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\pemograman\ralavel\aplikasi\sima\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\pemograman\ralavel\aplikasi\SIMA-1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA50AE9-A690-4C26-B6FC-A966266F40AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324CC0ED-AF4B-4ABE-ABC0-C4B3035A5DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="18990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relasi tabel" sheetId="2" r:id="rId1"/>
+    <sheet name="pembuatan crud absen" sheetId="3" r:id="rId2"/>
+    <sheet name="Siswa" sheetId="4" r:id="rId3"/>
+    <sheet name="kelas" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="123">
   <si>
     <t>siswa</t>
   </si>
@@ -44,41 +47,2467 @@
     <t>nama</t>
   </si>
   <si>
-    <t>yudi</t>
-  </si>
-  <si>
-    <t>saeful</t>
-  </si>
-  <si>
-    <t>rizal</t>
-  </si>
-  <si>
     <t>absen</t>
   </si>
   <si>
-    <t>tanggal</t>
-  </si>
-  <si>
     <t>id_siswa</t>
   </si>
   <si>
-    <t>id_absen</t>
-  </si>
-  <si>
-    <t>kehadiran</t>
-  </si>
-  <si>
-    <t>hadir</t>
-  </si>
-  <si>
-    <t>tidak hadir</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>nip</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>nama_lengkap</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>panjang</t>
+  </si>
+  <si>
+    <t>vachar</t>
+  </si>
+  <si>
+    <t>nama_siswa</t>
+  </si>
+  <si>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>telpone</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>id_kelas</t>
+  </si>
+  <si>
+    <t>id_Sekolah</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>kelas</t>
+  </si>
+  <si>
+    <t>id_sekolah</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>id_guru</t>
+  </si>
+  <si>
+    <t>tempat</t>
+  </si>
+  <si>
+    <t>pd_akhir</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sekolah</t>
+  </si>
+  <si>
+    <t>nama_sekolah</t>
+  </si>
+  <si>
+    <t>kepsek</t>
+  </si>
+  <si>
+    <t>telpon</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>smt</t>
+  </si>
+  <si>
+    <t>absensi</t>
+  </si>
+  <si>
+    <t>tgl</t>
+  </si>
+  <si>
+    <t>ket</t>
+  </si>
+  <si>
+    <t>id_mapel</t>
+  </si>
+  <si>
+    <t>id_smt</t>
+  </si>
+  <si>
+    <t>uh1</t>
+  </si>
+  <si>
+    <t>uh2</t>
+  </si>
+  <si>
+    <t>uh3</t>
+  </si>
+  <si>
+    <t>uts</t>
+  </si>
+  <si>
+    <t>uas</t>
+  </si>
+  <si>
+    <t>rerata</t>
+  </si>
+  <si>
+    <t>mapel</t>
+  </si>
+  <si>
+    <t>kkm</t>
+  </si>
+  <si>
+    <t>rekap</t>
+  </si>
+  <si>
+    <t>m01</t>
+  </si>
+  <si>
+    <t>m02</t>
+  </si>
+  <si>
+    <t>m03</t>
+  </si>
+  <si>
+    <t>m04</t>
+  </si>
+  <si>
+    <t>m05</t>
+  </si>
+  <si>
+    <t>m06</t>
+  </si>
+  <si>
+    <t>m07</t>
+  </si>
+  <si>
+    <t>m08</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>nilai</t>
+  </si>
+  <si>
+    <t>telepon</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>tahfizh</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>Quran</t>
+  </si>
+  <si>
+    <t>ayat</t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>juz</t>
+  </si>
+  <si>
+    <t>halaman</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>id_quran</t>
+  </si>
+  <si>
+    <t>wali_santri</t>
+  </si>
+  <si>
+    <t>1. tabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One </t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>desain table</t>
+  </si>
+  <si>
+    <t>buat file migration</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>handphone</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>doktrine/dbal</t>
+  </si>
+  <si>
+    <r>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'nama_siswa'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'tempat'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'tgl_lahir'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'alamat'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'hanphone'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'jk'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>desain tabel</t>
+  </si>
+  <si>
+    <t>buat migrasi</t>
+  </si>
+  <si>
+    <r>
+      <t>Schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'kelas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDBB979"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Blueprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'kelas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>timestamps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>        });</t>
+  </si>
+  <si>
+    <t>menyisipkan tabel</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDBB979"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'siswas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDBB979"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Blueprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unsignedBigInteger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'id_kelas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'jk'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>foreign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'id_kelas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>references</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'kelas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>onDelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'restrict'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>menyisipkan kolom baru untuk relasi dengan table kelas. Colum kelas tidak bisa dihapus jika ada siswa yang memiliki kelas</t>
+  </si>
+  <si>
+    <t>buat file migrasi baru dengan nama add_kelas_id_colum_to_siswas_table</t>
+  </si>
+  <si>
+    <t>buat model</t>
+  </si>
+  <si>
+    <t>deklarasikan bahwa model merujuk pada tabel siswa</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'siswas'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ga digunakan juga bisa asal nama table berbentuk plural/ ada s diakhir nama tabel</t>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$primaryKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>deklarasikan primary key tabel siswa</t>
+  </si>
+  <si>
+    <t>ga digunakan juga bisa asal nama primary key adalah id</t>
+  </si>
+  <si>
+    <t>buat controller</t>
+  </si>
+  <si>
+    <t>buat routes</t>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDBB979"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>tampilkan data dari database dengan eloquent</t>
+  </si>
+  <si>
+    <t>pada controller untuk mengirik data ke views</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'dashboard.siswa.index'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'siswa'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>pada controller untuk mengambil data pada data base melalui model</t>
+  </si>
+  <si>
+    <t>pada views untuk menampilkan data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@foreach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nama_siswa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF56B6C2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nama"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEBB07A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D69E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nama"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDE7C84"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@endforeach</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +2515,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE7C84"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF61AFEF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D69E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEBB07A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDBB979"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC792EA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF56B6C2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +2589,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF303845"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,16 +2625,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,23 +2687,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Konektor Panah Lurus 6">
+        <xdr:cNvPr id="5" name="Konektor Panah Lurus 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757EC689-4FF9-42EE-A725-773F47C3F8D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12D7792-2863-426B-B9A0-99E4B838844E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -180,8 +2711,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="276225"/>
-          <a:ext cx="762000" cy="990600"/>
+          <a:off x="257175" y="3352800"/>
+          <a:ext cx="0" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -209,23 +2740,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Konektor Panah Lurus 8">
+        <xdr:cNvPr id="8" name="Konektor Panah Lurus 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1147C205-6E3C-4907-8F47-1F61B5DB8C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FE8208-6BFA-4230-B490-18C0A22CF484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2838450" y="2571750"/>
+          <a:ext cx="457200" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Konektor Panah Lurus 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7885E7-411B-46E1-A1DA-C008B1AFB718}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -233,8 +2817,697 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4505325" y="304800"/>
-          <a:ext cx="381000" cy="1009650"/>
+          <a:off x="2847975" y="2952750"/>
+          <a:ext cx="3133725" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Konektor Panah Lurus 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE147730-21FF-45E8-A753-7A21A318438C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2857500" y="2019300"/>
+          <a:ext cx="3143250" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Konektor Panah Lurus 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB1A2F4-D835-44D8-8173-B7162E36B526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2819400" y="476250"/>
+          <a:ext cx="3152775" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Konektor Panah Lurus 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB66FED5-8128-4163-BB3E-DEEF4EEACBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2838450" y="685800"/>
+          <a:ext cx="3124200" cy="4591050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Konektor Panah Lurus 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9987B0-6043-4A42-B423-78987F2E7B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="1800225"/>
+          <a:ext cx="0" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Konektor Panah Lurus 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F22F2C-3AD7-46ED-AA3D-D7D08B6572D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="276225"/>
+          <a:ext cx="457200" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Konektor Panah Lurus 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096EFF73-52F3-40B7-A666-23EBC670168D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2857500" y="2600325"/>
+          <a:ext cx="428625" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Konektor Panah Lurus 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80067A75-E0BE-4CA3-B3EE-ED7EE7700D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2847975" y="2009775"/>
+          <a:ext cx="457200" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Konektor Panah Lurus 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F800E5-5708-48A1-B5AF-AD73196E32D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2847975" y="5248275"/>
+          <a:ext cx="447675" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Konektor Panah Lurus 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7565E2B0-02C1-4D38-895F-2BE6EE4F58E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2876550" y="4076700"/>
+          <a:ext cx="428625" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Konektor Panah Lurus 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB65B646-E6B9-4E09-AE56-677AB59F487E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3305175" y="3876675"/>
+          <a:ext cx="0" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Konektor Panah Lurus 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C6EEFE-8437-4D03-9018-7C3727B55920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2819400" y="1981200"/>
+          <a:ext cx="3143250" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Konektor Panah Lurus 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDE2C8D-D5B2-4354-B250-183054AD94DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8401050" y="276225"/>
+          <a:ext cx="19050" cy="5343525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>249465</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>566964</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Konektor Panah Lurus 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148AA7A9-BD47-4AF9-A77B-857D52E46451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2846161" y="2041071"/>
+          <a:ext cx="5817053" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -526,175 +3799,1592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B24F7-8D82-4CBD-87D7-846CB2B92088}">
-  <dimension ref="A2:K12"/>
+  <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="L9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>15</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <v>16</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="L11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>17</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="P12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="L14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="L15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1">
+        <v>60</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="L18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="L19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>11</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="L21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="L22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="L23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="L24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="L25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>11</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="L27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>20</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="L28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="L29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="L30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1">
+        <v>20</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="L31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1">
+        <v>20</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA881B5-9933-4D2A-AFB8-41B53B4AA85E}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="7" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1238D91-25BC-45AB-AD75-BC569F044A55}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CF9C5D-9530-4A2A-A211-20AE65ADE81A}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
+      <c r="B13" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>